--- a/medicine/Mort/Cimetière_de_Cameroun/Cimetière_de_Cameroun.xlsx
+++ b/medicine/Mort/Cimetière_de_Cameroun/Cimetière_de_Cameroun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Cameroun</t>
+          <t>Cimetière_de_Cameroun</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Cameroun est un cimetière guinéen situé dans la commune de Dixinn, l'une des communes constituant la ville de Conakry, non loin de la Mosquée Faycal[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Cameroun est un cimetière guinéen situé dans la commune de Dixinn, l'une des communes constituant la ville de Conakry, non loin de la Mosquée Faycal.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Cameroun</t>
+          <t>Cimetière_de_Cameroun</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière, le plus grand de la Guinée, a été créé en 1945. Cameroun est le nom du quartier de la commune de Dixinn où se situe le cimetière. 
 Des personnalités connues y sont enterrées, comme le premier président du pays, Ahmed Sékou Touré. Il est souvent considéré comme le « cimetière des bourgeois ».
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Cameroun</t>
+          <t>Cimetière_de_Cameroun</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Personnalités enterrées dans le cimetière de Cameroun</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sommaire :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
 Haut – A
 B
 C
@@ -573,42 +589,412 @@
 X
 Y
 Z
-A
-Ahmed Sékou Touré
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Cameroun</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Cameroun</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées dans le cimetière de Cameroun</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ahmed Sékou Touré
 Amadou Salif Kébé
-B
-Ben Sékou Sylla
-C
-Stokely Carmichael
-D
-E
-Eugène Camara
-F
-Facinet Mara
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Cameroun</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Cameroun</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées dans le cimetière de Cameroun</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ben Sékou Sylla</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Cameroun</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Cameroun</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées dans le cimetière de Cameroun</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Stokely Carmichael</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Cameroun</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Cameroun</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées dans le cimetière de Cameroun</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Eugène Camara</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Cameroun</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Cameroun</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées dans le cimetière de Cameroun</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facinet Mara
 Fodé Tounkara
-G
-H
-Hadja Kadé Diawara
-K
-Kabinet Camara
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Cameroun</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Cameroun</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées dans le cimetière de Cameroun</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hadja Kadé Diawara</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Cameroun</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Cameroun</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées dans le cimetière de Cameroun</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Kabinet Camara
 Kéléfa Sall
-Kerfalla Kanté
-L
-M
-Mohamed Lamine Camara
+Kerfalla Kanté</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Cameroun</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Cameroun</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées dans le cimetière de Cameroun</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mohamed Lamine Camara
 Mohamed K Touré
-N
-O
-Ousmane Sylla
-R
-S
-Saidouba Tenn Camara
-T
-UV
-WX
-Y
-Yaguine Koïta
-Z</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Cameroun</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Cameroun</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées dans le cimetière de Cameroun</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ousmane Sylla
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Cameroun</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Cameroun</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées dans le cimetière de Cameroun</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Saidouba Tenn Camara</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Cameroun</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Cameroun</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées dans le cimetière de Cameroun</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Yaguine Koïta</t>
         </is>
       </c>
     </row>
